--- a/Projects/Vehicle Access Card/Reminder_VehicleCard_Data.xlsx
+++ b/Projects/Vehicle Access Card/Reminder_VehicleCard_Data.xlsx
@@ -1,129 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Training Class\Project\Vehicle Access Card Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Reminding Clients" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Access card no</t>
-  </si>
-  <si>
-    <t>Vehicle no</t>
-  </si>
-  <si>
-    <t>Valid from</t>
-  </si>
-  <si>
-    <t>Valid till</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>B22345</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>2021-08-01</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>C32345</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>2021-08-22</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>D42345</t>
-  </si>
-  <si>
-    <t>2021-01-10</t>
-  </si>
-  <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>H82345</t>
-  </si>
-  <si>
-    <t>2021-08-25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,22 +48,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,118 +411,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Valid till</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Access card no</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Vehicle no</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>B22345</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C32345</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D42345</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>105</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>E52345</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>108</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>H82345</t>
+        </is>
       </c>
     </row>
   </sheetData>
